--- a/biology/Botanique/Mandarine/Mandarine.xlsx
+++ b/biology/Botanique/Mandarine/Mandarine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandarine (Citrus reticulata), également connue sous le nom de mandarin (en) ou de mandarine, est un agrume. C’est le fruit du mandarinier (Citrus reticulata), une espèce d'arbres de la famille des Rutaceae. Petit agrume de forme arrondie. Considérée comme une espèce distincte d'orange[réf. nécessaire], elle est généralement consommée nature ou dans des salades de fruits. Les mandarines sont un groupe d'agrumes de couleur orange constitués d'hybrides de mandarines avec une certaine contribution de pomelo[réf. nécessaire].
 Les mandarines sont plus petites et aplaties, contrairement aux oranges communes sphériques, Le fruit d’un diamètre de 5 à 9 cm est sphérique et légèrement aplati au sommet. Sa chair est sucrée et parfumée. Leur goût est considéré comme plus sucré et plus fort que celui de l'orange commune. Une mandarine mûre est ferme à légèrement molle, lourde pour sa taille et à la peau caillouteuse. La peau est plus ou moins fine, lâche, d’une vive couleur mandarine, avec peu de mésocarpe blanc, de sorte qu'elle est généralement plus facile à éplucher et à diviser en segments. Les hybrides présentent généralement ces caractéristiques à un degré moindre[réf. nécessaire]. La mandarine est tendre et s'abîme facilement au froid. Elle peut être cultivée dans les zones tropicales et subtropicales.
@@ -514,9 +526,11 @@
           <t>Origine du nom mandarine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mandarine (anglais mandarin, allemand Mandarine, portugais et espagnol mandarina)[1] pour désigner «une espèce d'orange» apparait en français chez Bernardin de Saint Pierre en 1773[2]. La mandarine devrait son nom à sa couleur qui serait celle de la robe de soie (mandarine désigne une étoffe de coton tramé de soie[3], parfois couleur de soleil[4]) des mandarins[5], « nom donné en Europe aux fonctionnaires publics de la Chine. Cette dénomination n'est point chinoise. On pense qu'elle vient du mot portugais mandar, qui veut dire commander, ordonner ; d'où l'on a fait le mot Mandarin » (portugais mandarim) écrit le Dictionnaire français-latin-chinois de la langue mandarine. Max Muller pense que Mandarin vient du sanscrit Mantrin[6], conseiller[7] qui désigne les hauts fonctionnaires malais mantarî[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mandarine (anglais mandarin, allemand Mandarine, portugais et espagnol mandarina) pour désigner «une espèce d'orange» apparait en français chez Bernardin de Saint Pierre en 1773. La mandarine devrait son nom à sa couleur qui serait celle de la robe de soie (mandarine désigne une étoffe de coton tramé de soie, parfois couleur de soleil) des mandarins, « nom donné en Europe aux fonctionnaires publics de la Chine. Cette dénomination n'est point chinoise. On pense qu'elle vient du mot portugais mandar, qui veut dire commander, ordonner ; d'où l'on a fait le mot Mandarin » (portugais mandarim) écrit le Dictionnaire français-latin-chinois de la langue mandarine. Max Muller pense que Mandarin vient du sanscrit Mantrin, conseiller qui désigne les hauts fonctionnaires malais mantarî.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Variétés et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandarine a plusieurs appellations, certaines faisant référence à des hybrides. La plupart des mandarines précoces sont de la variété japonaise « satsuma » qui comprend environ 200 cultivars. Les mandarines de pleine saison sont principalement les méditerranéennes, dont la réputée « nadorcott » et les hybrides tropicaux asiatique « ponkan » appréciés en Inde, au Brésil. La clémentine, quant à elle, est un hybride entre une mandarine et une orange douce, recherchée pour son absence de pépins et au goût plus acidulé. C'est la variété la plus vendue en Europe.
 La mandarine peut s’éplucher facilement. En commençant par le sommet du fruit, les quartiers peuvent être séparés sans perdre de jus. Ces qualités en font un fruit facile à consommer.
@@ -578,10 +594,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les utilisations de la mandarine sont identiques à celles de l’orange. Elle est notamment appréciée comme fruit de bouche. L’écorce et le jus sont utilisés dans les boissons (jus, liqueur, sirop, condiments, bière, etc.), en cuisine salée et sucrée.
-La peau de la mandarine peut également être utilisée dans des préparations médicinales, en particulier dans la médecine traditionnelle chinoise[9].
+La peau de la mandarine peut également être utilisée dans des préparations médicinales, en particulier dans la médecine traditionnelle chinoise.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La mandarine se conserve environ une semaine à température ambiante. Il est possible de doubler ce temps en la plaçant dans le bac à légumes du réfrigérateur.
 </t>
@@ -641,14 +661,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mandarinier est un petit arbre aux feuilles simples vert foncé brillant. Il n’est connu en Europe que depuis le début du XIXe siècle.
 Il est cultivé en Algérie, en Espagne, en Sicile, en Tunisie, au Maroc et aux États-Unis. Dans les zones trop froides, on le greffe sur Poncirus afin qu’il puisse supporter les hivers plus rudes.
-Production
-France
-La mandarine commune est progressivement remplacée par ses hybrides dépourvus de pépins, notamment la clémentine (hybride de l’orange douce et de la mandarine) qui représente à elle seule 80 % du marché des petits agrumes en France.
-Les 20 % restants sont en majorité occupés par des hybrides, principalement la clemenvilla (croisement de tangelo et de clémentine), les ortaniques (hybrides de tangerine et d’orange), et l'Orri de Jaffa de création récente (années 1990).
 </t>
         </is>
       </c>
@@ -674,10 +692,54 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mandarine commune est progressivement remplacée par ses hybrides dépourvus de pépins, notamment la clémentine (hybride de l’orange douce et de la mandarine) qui représente à elle seule 80 % du marché des petits agrumes en France.
+Les 20 % restants sont en majorité occupés par des hybrides, principalement la clemenvilla (croisement de tangelo et de clémentine), les ortaniques (hybrides de tangerine et d’orange), et l'Orri de Jaffa de création récente (années 1990).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mandarine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mandarine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Composition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
